--- a/Translation-ECOS-MAPS.xlsx
+++ b/Translation-ECOS-MAPS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkumar01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -807,9 +807,6 @@
     <t>LBL_Add</t>
   </si>
   <si>
-    <t>LBL_AddPoi</t>
-  </si>
-  <si>
     <t>LBL_AddToRepository</t>
   </si>
   <si>
@@ -1467,9 +1464,6 @@
     <t>MSG_I_SharingMap</t>
   </si>
   <si>
-    <t>MSG_E_Sorry,TheMapWasUnableToObtainDirections.TheRequestFailedWithTheMessage</t>
-  </si>
-  <si>
     <t>MSG_E_TabNameCan'TBeBlank</t>
   </si>
   <si>
@@ -1521,9 +1515,6 @@
     <t>MSG_E_AnErrorOccurred</t>
   </si>
   <si>
-    <t>MSG_I_CurrentSelectionIsReturningMoreThan70,000Frames.PleaseApplyFurtherFiltersToReduceTheResultTo70,000Frames</t>
-  </si>
-  <si>
     <t>LBL_SelectedTabIsEmpty</t>
   </si>
   <si>
@@ -1534,6 +1525,15 @@
   </si>
   <si>
     <t>%{count} shapes added successfully</t>
+  </si>
+  <si>
+    <t>MSG_I_CurrentSelectionIsReturningMoreThan70000Frames.PleaseApplyFurtherFiltersToReduceTheResultTo70000Frames</t>
+  </si>
+  <si>
+    <t>MSG_E_Sorry.TheMapWasUnableToObtainDirections.TheRequestFailedWithTheMessage</t>
+  </si>
+  <si>
+    <t>LBL_AddPOI</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1970,7 @@
         <v>244</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>211</v>
@@ -1983,7 +1983,7 @@
         <v>244</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>81</v>
@@ -1996,7 +1996,7 @@
         <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>82</v>
@@ -2009,7 +2009,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>61</v>
@@ -2022,7 +2022,7 @@
         <v>244</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>83</v>
@@ -2035,7 +2035,7 @@
         <v>244</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>84</v>
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -2061,7 +2061,7 @@
         <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>85</v>
@@ -2074,7 +2074,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -2087,7 +2087,7 @@
         <v>244</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>86</v>
@@ -2100,7 +2100,7 @@
         <v>244</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>212</v>
@@ -2113,7 +2113,7 @@
         <v>244</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>87</v>
@@ -2126,7 +2126,7 @@
         <v>244</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>88</v>
@@ -2139,7 +2139,7 @@
         <v>244</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>89</v>
@@ -2152,7 +2152,7 @@
         <v>244</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>90</v>
@@ -2165,7 +2165,7 @@
         <v>247</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>91</v>
@@ -2178,7 +2178,7 @@
         <v>244</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>92</v>
@@ -2191,7 +2191,7 @@
         <v>244</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>93</v>
@@ -2204,7 +2204,7 @@
         <v>244</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>94</v>
@@ -2217,7 +2217,7 @@
         <v>244</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>95</v>
@@ -2230,7 +2230,7 @@
         <v>244</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>96</v>
@@ -2243,7 +2243,7 @@
         <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -2256,7 +2256,7 @@
         <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>97</v>
@@ -2269,7 +2269,7 @@
         <v>244</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>213</v>
@@ -2282,7 +2282,7 @@
         <v>244</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>98</v>
@@ -2295,7 +2295,7 @@
         <v>244</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>99</v>
@@ -2308,7 +2308,7 @@
         <v>244</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>100</v>
@@ -2321,7 +2321,7 @@
         <v>244</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>101</v>
@@ -2334,7 +2334,7 @@
         <v>244</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>102</v>
@@ -2347,7 +2347,7 @@
         <v>244</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>214</v>
@@ -2360,7 +2360,7 @@
         <v>244</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>215</v>
@@ -2373,7 +2373,7 @@
         <v>244</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>103</v>
@@ -2386,7 +2386,7 @@
         <v>244</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>104</v>
@@ -2399,7 +2399,7 @@
         <v>244</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>105</v>
@@ -2412,7 +2412,7 @@
         <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>72</v>
@@ -2425,7 +2425,7 @@
         <v>244</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>106</v>
@@ -2438,7 +2438,7 @@
         <v>244</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>107</v>
@@ -2451,7 +2451,7 @@
         <v>244</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>216</v>
@@ -2464,7 +2464,7 @@
         <v>244</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>108</v>
@@ -2477,7 +2477,7 @@
         <v>246</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>109</v>
@@ -2490,7 +2490,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -2503,7 +2503,7 @@
         <v>244</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>110</v>
@@ -2516,7 +2516,7 @@
         <v>244</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>217</v>
@@ -2529,7 +2529,7 @@
         <v>244</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>218</v>
@@ -2542,7 +2542,7 @@
         <v>244</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>111</v>
@@ -2555,7 +2555,7 @@
         <v>244</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>112</v>
@@ -2568,7 +2568,7 @@
         <v>246</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>113</v>
@@ -2581,7 +2581,7 @@
         <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
@@ -2594,7 +2594,7 @@
         <v>244</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>219</v>
@@ -2607,7 +2607,7 @@
         <v>244</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>114</v>
@@ -2620,7 +2620,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>198</v>
@@ -2633,7 +2633,7 @@
         <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -2646,7 +2646,7 @@
         <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2659,7 +2659,7 @@
         <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>199</v>
@@ -2672,7 +2672,7 @@
         <v>244</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>115</v>
@@ -2685,7 +2685,7 @@
         <v>244</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>116</v>
@@ -2698,7 +2698,7 @@
         <v>244</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>117</v>
@@ -2711,7 +2711,7 @@
         <v>244</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>118</v>
@@ -2724,7 +2724,7 @@
         <v>244</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>220</v>
@@ -2737,7 +2737,7 @@
         <v>244</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>119</v>
@@ -2750,7 +2750,7 @@
         <v>244</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>121</v>
@@ -2763,7 +2763,7 @@
         <v>244</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>221</v>
@@ -2776,7 +2776,7 @@
         <v>244</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>120</v>
@@ -2789,7 +2789,7 @@
         <v>244</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>122</v>
@@ -2802,7 +2802,7 @@
         <v>244</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>123</v>
@@ -2815,7 +2815,7 @@
         <v>244</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>222</v>
@@ -2828,7 +2828,7 @@
         <v>244</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>124</v>
@@ -2841,7 +2841,7 @@
         <v>244</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>125</v>
@@ -2854,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>126</v>
@@ -2867,7 +2867,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>46</v>
@@ -2880,7 +2880,7 @@
         <v>244</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
@@ -2893,7 +2893,7 @@
         <v>244</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>127</v>
@@ -2906,7 +2906,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>128</v>
@@ -2919,7 +2919,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>71</v>
@@ -2932,7 +2932,7 @@
         <v>244</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>129</v>
@@ -2945,7 +2945,7 @@
         <v>244</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>223</v>
@@ -2958,7 +2958,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>130</v>
@@ -2971,7 +2971,7 @@
         <v>244</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>131</v>
@@ -2984,7 +2984,7 @@
         <v>244</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>132</v>
@@ -2997,7 +2997,7 @@
         <v>244</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>133</v>
@@ -3010,7 +3010,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>134</v>
@@ -3023,7 +3023,7 @@
         <v>75</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>135</v>
@@ -3036,7 +3036,7 @@
         <v>244</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>48</v>
@@ -3049,7 +3049,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>49</v>
@@ -3062,7 +3062,7 @@
         <v>244</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>51</v>
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>245</v>
@@ -3088,7 +3088,7 @@
         <v>244</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>136</v>
@@ -3101,7 +3101,7 @@
         <v>244</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>47</v>
@@ -3114,7 +3114,7 @@
         <v>244</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>137</v>
@@ -3127,7 +3127,7 @@
         <v>244</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>138</v>
@@ -3140,7 +3140,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>139</v>
@@ -3153,7 +3153,7 @@
         <v>247</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>140</v>
@@ -3166,7 +3166,7 @@
         <v>247</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>141</v>
@@ -3179,7 +3179,7 @@
         <v>248</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>142</v>
@@ -3192,7 +3192,7 @@
         <v>77</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>224</v>
@@ -3205,7 +3205,7 @@
         <v>244</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>143</v>
@@ -3218,7 +3218,7 @@
         <v>73</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>225</v>
@@ -3231,7 +3231,7 @@
         <v>77</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>144</v>
@@ -3244,7 +3244,7 @@
         <v>77</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>44</v>
@@ -3257,7 +3257,7 @@
         <v>244</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>42</v>
@@ -3270,7 +3270,7 @@
         <v>244</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>43</v>
@@ -3283,7 +3283,7 @@
         <v>244</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>145</v>
@@ -3296,7 +3296,7 @@
         <v>244</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
@@ -3309,7 +3309,7 @@
         <v>244</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>30</v>
@@ -3322,7 +3322,7 @@
         <v>73</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>60</v>
@@ -3335,7 +3335,7 @@
         <v>244</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>226</v>
@@ -3348,7 +3348,7 @@
         <v>244</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>146</v>
@@ -3361,7 +3361,7 @@
         <v>244</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>147</v>
@@ -3374,7 +3374,7 @@
         <v>248</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>148</v>
@@ -3387,7 +3387,7 @@
         <v>73</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>149</v>
@@ -3400,7 +3400,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>150</v>
@@ -3413,7 +3413,7 @@
         <v>73</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
@@ -3426,7 +3426,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>227</v>
@@ -3439,7 +3439,7 @@
         <v>77</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>228</v>
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>229</v>
@@ -3465,7 +3465,7 @@
         <v>73</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>151</v>
@@ -3478,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>21</v>
@@ -3491,7 +3491,7 @@
         <v>73</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>45</v>
@@ -3504,7 +3504,7 @@
         <v>76</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>5</v>
@@ -3517,7 +3517,7 @@
         <v>73</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>52</v>
@@ -3530,7 +3530,7 @@
         <v>73</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
@@ -3543,7 +3543,7 @@
         <v>244</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>244</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
@@ -3569,7 +3569,7 @@
         <v>77</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3582,7 +3582,7 @@
         <v>77</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>69</v>
@@ -3595,7 +3595,7 @@
         <v>77</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>22</v>
@@ -3608,7 +3608,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>20</v>
@@ -3621,7 +3621,7 @@
         <v>76</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>152</v>
@@ -3634,7 +3634,7 @@
         <v>74</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>230</v>
@@ -3647,7 +3647,7 @@
         <v>74</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>153</v>
@@ -3660,7 +3660,7 @@
         <v>73</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>200</v>
@@ -3673,7 +3673,7 @@
         <v>248</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>253</v>
@@ -3686,7 +3686,7 @@
         <v>73</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>201</v>
@@ -3699,7 +3699,7 @@
         <v>76</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>6</v>
@@ -3712,7 +3712,7 @@
         <v>77</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>38</v>
@@ -3725,7 +3725,7 @@
         <v>73</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>41</v>
@@ -3738,7 +3738,7 @@
         <v>76</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>64</v>
@@ -3751,7 +3751,7 @@
         <v>77</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>36</v>
@@ -3764,7 +3764,7 @@
         <v>73</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>35</v>
@@ -3777,7 +3777,7 @@
         <v>76</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>3</v>
@@ -3790,7 +3790,7 @@
         <v>73</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>19</v>
@@ -3803,7 +3803,7 @@
         <v>73</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
@@ -3816,7 +3816,7 @@
         <v>73</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>59</v>
@@ -3829,7 +3829,7 @@
         <v>73</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>65</v>
@@ -3842,7 +3842,7 @@
         <v>73</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>26</v>
@@ -3855,7 +3855,7 @@
         <v>73</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>62</v>
@@ -3868,7 +3868,7 @@
         <v>73</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>70</v>
@@ -3881,7 +3881,7 @@
         <v>73</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
@@ -3894,7 +3894,7 @@
         <v>73</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>202</v>
@@ -3907,7 +3907,7 @@
         <v>73</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -3920,7 +3920,7 @@
         <v>73</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>50</v>
@@ -3933,7 +3933,7 @@
         <v>76</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>55</v>
@@ -3946,7 +3946,7 @@
         <v>244</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>53</v>
@@ -3959,7 +3959,7 @@
         <v>77</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>56</v>
@@ -3972,7 +3972,7 @@
         <v>75</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -3985,7 +3985,7 @@
         <v>244</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>24</v>
@@ -3998,7 +3998,7 @@
         <v>244</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>67</v>
@@ -4011,7 +4011,7 @@
         <v>244</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>154</v>
@@ -4024,7 +4024,7 @@
         <v>244</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>58</v>
@@ -4037,7 +4037,7 @@
         <v>244</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>33</v>
@@ -4050,7 +4050,7 @@
         <v>244</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>155</v>
@@ -4063,7 +4063,7 @@
         <v>73</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>156</v>
@@ -4076,7 +4076,7 @@
         <v>75</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>157</v>
@@ -4089,7 +4089,7 @@
         <v>244</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>158</v>
@@ -4102,7 +4102,7 @@
         <v>244</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>159</v>
@@ -4115,7 +4115,7 @@
         <v>244</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>160</v>
@@ -4128,7 +4128,7 @@
         <v>244</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>31</v>
@@ -4141,7 +4141,7 @@
         <v>244</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>32</v>
@@ -4154,7 +4154,7 @@
         <v>73</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>161</v>
@@ -4167,7 +4167,7 @@
         <v>244</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>162</v>
@@ -4180,7 +4180,7 @@
         <v>244</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>163</v>
@@ -4193,7 +4193,7 @@
         <v>244</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>231</v>
@@ -4206,7 +4206,7 @@
         <v>244</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>197</v>
@@ -4219,7 +4219,7 @@
         <v>77</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>164</v>
@@ -4232,7 +4232,7 @@
         <v>244</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>34</v>
@@ -4245,7 +4245,7 @@
         <v>244</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>165</v>
@@ -4258,7 +4258,7 @@
         <v>73</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>166</v>
@@ -4271,7 +4271,7 @@
         <v>244</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>167</v>
@@ -4284,7 +4284,7 @@
         <v>244</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>168</v>
@@ -4297,7 +4297,7 @@
         <v>244</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>169</v>
@@ -4310,7 +4310,7 @@
         <v>76</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>203</v>
@@ -4323,7 +4323,7 @@
         <v>244</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>170</v>
@@ -4336,7 +4336,7 @@
         <v>73</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>232</v>
@@ -4349,7 +4349,7 @@
         <v>244</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>233</v>
@@ -4362,7 +4362,7 @@
         <v>244</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>29</v>
@@ -4375,7 +4375,7 @@
         <v>244</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>234</v>
@@ -4388,7 +4388,7 @@
         <v>75</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>171</v>
@@ -4401,7 +4401,7 @@
         <v>244</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>235</v>
@@ -4414,7 +4414,7 @@
         <v>244</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>66</v>
@@ -4427,7 +4427,7 @@
         <v>244</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>172</v>
@@ -4440,7 +4440,7 @@
         <v>244</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>173</v>
@@ -4453,7 +4453,7 @@
         <v>244</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>174</v>
@@ -4466,7 +4466,7 @@
         <v>244</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>244</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>175</v>
@@ -4492,7 +4492,7 @@
         <v>76</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>176</v>
@@ -4505,7 +4505,7 @@
         <v>76</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>177</v>
@@ -4518,7 +4518,7 @@
         <v>244</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>236</v>
@@ -4531,7 +4531,7 @@
         <v>244</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>178</v>
@@ -4544,7 +4544,7 @@
         <v>244</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>179</v>
@@ -4557,7 +4557,7 @@
         <v>244</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>204</v>
@@ -4570,7 +4570,7 @@
         <v>244</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>180</v>
@@ -4583,7 +4583,7 @@
         <v>73</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>181</v>
@@ -4596,7 +4596,7 @@
         <v>244</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>63</v>
@@ -4609,7 +4609,7 @@
         <v>77</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>205</v>
@@ -4622,7 +4622,7 @@
         <v>244</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>206</v>
@@ -4635,7 +4635,7 @@
         <v>244</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>237</v>
@@ -4648,7 +4648,7 @@
         <v>244</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>207</v>
@@ -4661,7 +4661,7 @@
         <v>244</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>208</v>
@@ -4674,7 +4674,7 @@
         <v>244</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>238</v>
@@ -4687,7 +4687,7 @@
         <v>74</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>182</v>
@@ -4700,7 +4700,7 @@
         <v>244</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>183</v>
@@ -4713,7 +4713,7 @@
         <v>77</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>184</v>
@@ -4726,7 +4726,7 @@
         <v>77</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>185</v>
@@ -4739,7 +4739,7 @@
         <v>77</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>239</v>
@@ -4752,7 +4752,7 @@
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>68</v>
@@ -4765,7 +4765,7 @@
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>186</v>
@@ -4778,7 +4778,7 @@
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>240</v>
@@ -4791,7 +4791,7 @@
         <v>244</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>187</v>
@@ -4804,7 +4804,7 @@
         <v>244</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>188</v>
@@ -4817,7 +4817,7 @@
         <v>248</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>189</v>
@@ -4830,7 +4830,7 @@
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>54</v>
@@ -4843,7 +4843,7 @@
         <v>248</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>190</v>
@@ -4856,7 +4856,7 @@
         <v>248</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>191</v>
@@ -4869,7 +4869,7 @@
         <v>248</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>209</v>
@@ -4882,7 +4882,7 @@
         <v>77</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>57</v>
@@ -4895,7 +4895,7 @@
         <v>248</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>192</v>
@@ -4908,7 +4908,7 @@
         <v>248</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>193</v>
@@ -4921,7 +4921,7 @@
         <v>248</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>194</v>
@@ -4934,7 +4934,7 @@
         <v>248</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>195</v>
@@ -4947,7 +4947,7 @@
         <v>248</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>241</v>
@@ -4960,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>37</v>
@@ -4973,7 +4973,7 @@
         <v>246</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>196</v>
@@ -4986,10 +4986,10 @@
         <v>75</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -4999,10 +4999,10 @@
         <v>75</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -5012,10 +5012,10 @@
         <v>75</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -5025,7 +5025,7 @@
         <v>77</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>23</v>
@@ -5038,7 +5038,7 @@
         <v>77</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>15</v>
@@ -5051,7 +5051,7 @@
         <v>77</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>16</v>
@@ -5064,7 +5064,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>242</v>
@@ -5077,7 +5077,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>243</v>

--- a/Translation-ECOS-MAPS.xlsx
+++ b/Translation-ECOS-MAPS.xlsx
@@ -795,9 +795,6 @@
     <t>Package</t>
   </si>
   <si>
-    <t>LBL_%PenetrationOfTargetAudience</t>
-  </si>
-  <si>
     <t>LBL_AboutMe</t>
   </si>
   <si>
@@ -993,18 +990,6 @@
     <t>LBL_GetFrames</t>
   </si>
   <si>
-    <t>LBL_GetFrames(AllShapeTabs)</t>
-  </si>
-  <si>
-    <t>LBL_GetFrames(CurrentShape)</t>
-  </si>
-  <si>
-    <t>LBL_GetFrames(SelectedShapeTab)</t>
-  </si>
-  <si>
-    <t>LBL_GetFrames(SelectedShapes)</t>
-  </si>
-  <si>
     <t>LBL_GetStraightDistance</t>
   </si>
   <si>
@@ -1014,9 +999,6 @@
     <t>LBL_GettingFramesForXShape</t>
   </si>
   <si>
-    <t>LBL_GettingFramesForXShape(S)</t>
-  </si>
-  <si>
     <t>LBL_HeatMapGenerated</t>
   </si>
   <si>
@@ -1107,9 +1089,6 @@
     <t>LBL_Package</t>
   </si>
   <si>
-    <t>LBL_Poi</t>
-  </si>
-  <si>
     <t>LBL_PoiFrameColour</t>
   </si>
   <si>
@@ -1140,9 +1119,6 @@
     <t>LBL_Processing</t>
   </si>
   <si>
-    <t>LBL_Recieved:</t>
-  </si>
-  <si>
     <t>LBL_Repository</t>
   </si>
   <si>
@@ -1212,9 +1188,6 @@
     <t>LBL_ShapeType</t>
   </si>
   <si>
-    <t>LBL_Shape(S)</t>
-  </si>
-  <si>
     <t>LBL_Shapeid</t>
   </si>
   <si>
@@ -1263,9 +1236,6 @@
     <t>LBL_Title</t>
   </si>
   <si>
-    <t>LBL_Total:</t>
-  </si>
-  <si>
     <t>LBL_Town</t>
   </si>
   <si>
@@ -1299,9 +1269,6 @@
     <t>MSG_E_AnalysisNotSupported</t>
   </si>
   <si>
-    <t>MSG_E_DensityHeatmapCanBeAppliedToFrames/PoisOnly</t>
-  </si>
-  <si>
     <t>MSG_W_EmailAddressHasAlreadyBeenAdded</t>
   </si>
   <si>
@@ -1320,15 +1287,9 @@
     <t>MSG_S_HeatmapAddedSuccessfully</t>
   </si>
   <si>
-    <t>MSG_E_MapCannotBeSaved.NoDataToSave</t>
-  </si>
-  <si>
     <t>MSG_I_MapSaved</t>
   </si>
   <si>
-    <t>MSG_E_NoFrame(s)Selected</t>
-  </si>
-  <si>
     <t>MSG_I_NoFramesAddedOrFramesAlreadyExists</t>
   </si>
   <si>
@@ -1344,15 +1305,6 @@
     <t>MSG_E_NoMarkersPresentOnTheMap</t>
   </si>
   <si>
-    <t>MSG_E_NoMarkersSelected.PleaseSelectTheMarkersFirst</t>
-  </si>
-  <si>
-    <t>MSG_E_NoPOI(s)Selected</t>
-  </si>
-  <si>
-    <t>MSG_E_NoShape(s)Selected</t>
-  </si>
-  <si>
     <t>LBL_OpeningMap</t>
   </si>
   <si>
@@ -1401,9 +1353,6 @@
     <t>MSG_E_PleaseSelectTheShapesFirst</t>
   </si>
   <si>
-    <t>MSG_E_PleaseSelectValidInputs(SourceTab/TargetTab/Count)</t>
-  </si>
-  <si>
     <t>MSG_E_PleaseSelectAValidUser</t>
   </si>
   <si>
@@ -1416,15 +1365,9 @@
     <t>MSG_E_PleaseSelectATable</t>
   </si>
   <si>
-    <t>MSG_I_NoFramesFoundForSelectedShape(s)</t>
-  </si>
-  <si>
     <t>MSG_I_NoFramesFoundForAppliedFilters</t>
   </si>
   <si>
-    <t>MSG_E_FramesToFramesAnalysisNotSupported.PleaseSelectDifferentTabs</t>
-  </si>
-  <si>
     <t>MSG_E_GeocodeWasNotSuccessfulForTheFollowingReason</t>
   </si>
   <si>
@@ -1440,9 +1383,6 @@
     <t>MSG_E_PoiTypeNeedToBeDefined</t>
   </si>
   <si>
-    <t>MSG_S_Poi'SSaved</t>
-  </si>
-  <si>
     <t>MSG_E_RepositoryNameMustBePresent</t>
   </si>
   <si>
@@ -1452,24 +1392,12 @@
     <t>MSG_S_ShapesAddedSuccessfully</t>
   </si>
   <si>
-    <t>MSG_E_ShapesToFramesAnalysisNotSupported.PleaseSelectDifferentTabs</t>
-  </si>
-  <si>
-    <t>MSG_E_ShapesToPoisAnalysisNotSupported.PleaseSelectDifferentTabs</t>
-  </si>
-  <si>
     <t>MSG_S_SharedSuccessfully</t>
   </si>
   <si>
     <t>MSG_I_SharingMap</t>
   </si>
   <si>
-    <t>MSG_E_TabNameCan'TBeBlank</t>
-  </si>
-  <si>
-    <t>MSG_S_TotalRecordsFound:X</t>
-  </si>
-  <si>
     <t>MSG_E_UserAlreadySelected</t>
   </si>
   <si>
@@ -1482,18 +1410,6 @@
     <t>MSG_S_XShapesAddedSuccessfully</t>
   </si>
   <si>
-    <t>MSG_I_YouHaven'TSelectedAnyShape(S)Yet.PleaseDraw/SelectTheShape(S)ToFilterPois</t>
-  </si>
-  <si>
-    <t>MSG_I_YouHaven'TSelectedAnyShape(S)Yet.PleaseDraw/SelectTheShape(S)ToFilterFrames</t>
-  </si>
-  <si>
-    <t>MSG_I_YouHaven'TSelectedAnyRecordsYet.PleaseSelectTheRows</t>
-  </si>
-  <si>
-    <t>MSG_E_PleaseSelectValidSourceAndDestination.YouCanCanculateDistanceBetweenOnly2FlaggedMarkers</t>
-  </si>
-  <si>
     <t>MSG_E_PleaseSelectFrameId</t>
   </si>
   <si>
@@ -1527,13 +1443,97 @@
     <t>%{count} shapes added successfully</t>
   </si>
   <si>
-    <t>MSG_I_CurrentSelectionIsReturningMoreThan70000Frames.PleaseApplyFurtherFiltersToReduceTheResultTo70000Frames</t>
-  </si>
-  <si>
-    <t>MSG_E_Sorry.TheMapWasUnableToObtainDirections.TheRequestFailedWithTheMessage</t>
-  </si>
-  <si>
     <t>LBL_AddPOI</t>
+  </si>
+  <si>
+    <t>LBL_POI</t>
+  </si>
+  <si>
+    <t>LBL_PenetrationOfTargetAudience</t>
+  </si>
+  <si>
+    <t>MSG_I_CurrentSelectionIsReturningMoreThan70000Frames</t>
+  </si>
+  <si>
+    <t>MSG_E_DensityHeatmapCanBeAppliedToFramesAndPoisOnly</t>
+  </si>
+  <si>
+    <t>MSG_E_FramesToFramesAnalysisNotSupported_PleaseSelectDifferentTabs</t>
+  </si>
+  <si>
+    <t>LBL_GetFrames_AllShapeTabs</t>
+  </si>
+  <si>
+    <t>LBL_GetFrames_CurrentShape</t>
+  </si>
+  <si>
+    <t>LBL_GetFrames_SelectedShapeTab</t>
+  </si>
+  <si>
+    <t>LBL_GetFrames_SelectedShapes</t>
+  </si>
+  <si>
+    <t>LBL_GettingFramesForXShapes</t>
+  </si>
+  <si>
+    <t>MSG_E_MapCannotBeSaved_NoDataToSave</t>
+  </si>
+  <si>
+    <t>MSG_E_NoFrameSelected</t>
+  </si>
+  <si>
+    <t>MSG_I_NoFramesFoundForSelectedShapes</t>
+  </si>
+  <si>
+    <t>MSG_E_NoMarkersSelected_PleaseSelectTheMarkersFirst</t>
+  </si>
+  <si>
+    <t>MSG_E_NoPOIsSelected</t>
+  </si>
+  <si>
+    <t>MSG_E_NoShapesSelected</t>
+  </si>
+  <si>
+    <t>MSG_E_PleaseSelectValidInputs_SourceTabTargetTabCount</t>
+  </si>
+  <si>
+    <t>MSG_E_PleaseSelectValidSourceAndDestination_YouCanCanculateDistanceBetweenOnly2FlaggedMarkers</t>
+  </si>
+  <si>
+    <t>MSG_S_PoisSaved</t>
+  </si>
+  <si>
+    <t>LBL_Recieved</t>
+  </si>
+  <si>
+    <t>LBL_Shape_s</t>
+  </si>
+  <si>
+    <t>MSG_E_ShapesToFramesAnalysisNotSupported_PleaseSelectDifferentTabs</t>
+  </si>
+  <si>
+    <t>MSG_E_ShapesToPoisAnalysisNotSupported_PleaseSelectDifferentTabs</t>
+  </si>
+  <si>
+    <t>MSG_E_Sorry_TheMapWasUnableToObtainDirections_TheRequestFailedWithTheMessage</t>
+  </si>
+  <si>
+    <t>MSG_E_TabNameCantBeBlank</t>
+  </si>
+  <si>
+    <t>LBL_Total</t>
+  </si>
+  <si>
+    <t>MSG_S_TotalRecordsFound_X</t>
+  </si>
+  <si>
+    <t>MSG_I_YouHaventSelectedAnyRecordsYet_PleaseSelectTheRows</t>
+  </si>
+  <si>
+    <t>MSG_I_YouHaventSelectedAnyShapesYet_PleaseDrawOrSelectTheShapesToFilterFrames</t>
+  </si>
+  <si>
+    <t>MSG_I_YouHaventSelectedAnyShapesYet_PleaseDrawOrSelectTheShapesToFilterPois</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B226" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,7 +1918,7 @@
         <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>472</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -1931,7 +1931,7 @@
         <v>244</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>210</v>
@@ -1944,7 +1944,7 @@
         <v>244</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>79</v>
@@ -1957,7 +1957,7 @@
         <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>80</v>
@@ -1970,7 +1970,7 @@
         <v>244</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>211</v>
@@ -1983,7 +1983,7 @@
         <v>244</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>81</v>
@@ -1996,7 +1996,7 @@
         <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>82</v>
@@ -2009,7 +2009,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>61</v>
@@ -2022,7 +2022,7 @@
         <v>244</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>83</v>
@@ -2035,7 +2035,7 @@
         <v>244</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>84</v>
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -2061,7 +2061,7 @@
         <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>85</v>
@@ -2074,7 +2074,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -2087,7 +2087,7 @@
         <v>244</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>86</v>
@@ -2100,7 +2100,7 @@
         <v>244</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>212</v>
@@ -2113,7 +2113,7 @@
         <v>244</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>87</v>
@@ -2126,7 +2126,7 @@
         <v>244</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>88</v>
@@ -2139,7 +2139,7 @@
         <v>244</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>89</v>
@@ -2152,7 +2152,7 @@
         <v>244</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>90</v>
@@ -2165,7 +2165,7 @@
         <v>247</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>91</v>
@@ -2178,7 +2178,7 @@
         <v>244</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>92</v>
@@ -2191,7 +2191,7 @@
         <v>244</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>93</v>
@@ -2204,7 +2204,7 @@
         <v>244</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>94</v>
@@ -2217,7 +2217,7 @@
         <v>244</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>95</v>
@@ -2230,7 +2230,7 @@
         <v>244</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>96</v>
@@ -2243,7 +2243,7 @@
         <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -2256,7 +2256,7 @@
         <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>97</v>
@@ -2269,7 +2269,7 @@
         <v>244</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>213</v>
@@ -2282,7 +2282,7 @@
         <v>244</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>98</v>
@@ -2295,7 +2295,7 @@
         <v>244</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>99</v>
@@ -2308,7 +2308,7 @@
         <v>244</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>100</v>
@@ -2321,7 +2321,7 @@
         <v>244</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>101</v>
@@ -2334,7 +2334,7 @@
         <v>244</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>102</v>
@@ -2347,7 +2347,7 @@
         <v>244</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>214</v>
@@ -2360,7 +2360,7 @@
         <v>244</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>215</v>
@@ -2373,7 +2373,7 @@
         <v>244</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>103</v>
@@ -2386,7 +2386,7 @@
         <v>244</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>104</v>
@@ -2399,7 +2399,7 @@
         <v>244</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>105</v>
@@ -2412,7 +2412,7 @@
         <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>72</v>
@@ -2425,7 +2425,7 @@
         <v>244</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>106</v>
@@ -2438,7 +2438,7 @@
         <v>244</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>107</v>
@@ -2451,7 +2451,7 @@
         <v>244</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>216</v>
@@ -2464,7 +2464,7 @@
         <v>244</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>108</v>
@@ -2477,7 +2477,7 @@
         <v>246</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>109</v>
@@ -2490,7 +2490,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -2503,7 +2503,7 @@
         <v>244</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>110</v>
@@ -2516,7 +2516,7 @@
         <v>244</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>217</v>
@@ -2529,7 +2529,7 @@
         <v>244</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>218</v>
@@ -2542,7 +2542,7 @@
         <v>244</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>111</v>
@@ -2555,7 +2555,7 @@
         <v>244</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>112</v>
@@ -2568,7 +2568,7 @@
         <v>246</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>113</v>
@@ -2581,7 +2581,7 @@
         <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
@@ -2594,7 +2594,7 @@
         <v>244</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>219</v>
@@ -2607,7 +2607,7 @@
         <v>244</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>114</v>
@@ -2620,7 +2620,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>198</v>
@@ -2633,7 +2633,7 @@
         <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -2646,7 +2646,7 @@
         <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2659,7 +2659,7 @@
         <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>199</v>
@@ -2672,7 +2672,7 @@
         <v>244</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>115</v>
@@ -2685,7 +2685,7 @@
         <v>244</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>116</v>
@@ -2698,7 +2698,7 @@
         <v>244</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>117</v>
@@ -2711,7 +2711,7 @@
         <v>244</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>118</v>
@@ -2724,7 +2724,7 @@
         <v>244</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>220</v>
@@ -2737,7 +2737,7 @@
         <v>244</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>119</v>
@@ -2750,7 +2750,7 @@
         <v>244</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>121</v>
@@ -2763,7 +2763,7 @@
         <v>244</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>221</v>
@@ -2776,7 +2776,7 @@
         <v>244</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>120</v>
@@ -2789,7 +2789,7 @@
         <v>244</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>122</v>
@@ -2802,7 +2802,7 @@
         <v>244</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>123</v>
@@ -2815,7 +2815,7 @@
         <v>244</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>222</v>
@@ -2828,7 +2828,7 @@
         <v>244</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>124</v>
@@ -2841,7 +2841,7 @@
         <v>244</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>125</v>
@@ -2854,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>126</v>
@@ -2867,7 +2867,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>46</v>
@@ -2880,7 +2880,7 @@
         <v>244</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
@@ -2893,7 +2893,7 @@
         <v>244</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>127</v>
@@ -2906,7 +2906,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>128</v>
@@ -2919,7 +2919,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>71</v>
@@ -2932,7 +2932,7 @@
         <v>244</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>129</v>
@@ -2945,7 +2945,7 @@
         <v>244</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>223</v>
@@ -2958,7 +2958,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>130</v>
@@ -2971,7 +2971,7 @@
         <v>244</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>320</v>
+        <v>476</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>131</v>
@@ -2984,7 +2984,7 @@
         <v>244</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>321</v>
+        <v>477</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>132</v>
@@ -2997,7 +2997,7 @@
         <v>244</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>322</v>
+        <v>478</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>133</v>
@@ -3010,7 +3010,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>323</v>
+        <v>479</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>134</v>
@@ -3023,7 +3023,7 @@
         <v>75</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>135</v>
@@ -3036,7 +3036,7 @@
         <v>244</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>48</v>
@@ -3049,7 +3049,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>49</v>
@@ -3062,7 +3062,7 @@
         <v>244</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>327</v>
+        <v>480</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>51</v>
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>245</v>
@@ -3088,7 +3088,7 @@
         <v>244</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>136</v>
@@ -3101,7 +3101,7 @@
         <v>244</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>47</v>
@@ -3114,7 +3114,7 @@
         <v>244</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>137</v>
@@ -3127,7 +3127,7 @@
         <v>244</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>138</v>
@@ -3140,7 +3140,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>139</v>
@@ -3153,7 +3153,7 @@
         <v>247</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>140</v>
@@ -3166,7 +3166,7 @@
         <v>247</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>141</v>
@@ -3179,7 +3179,7 @@
         <v>248</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>142</v>
@@ -3192,7 +3192,7 @@
         <v>77</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>224</v>
@@ -3205,7 +3205,7 @@
         <v>244</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>143</v>
@@ -3218,7 +3218,7 @@
         <v>73</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>225</v>
@@ -3231,7 +3231,7 @@
         <v>77</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>144</v>
@@ -3244,7 +3244,7 @@
         <v>77</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>44</v>
@@ -3257,7 +3257,7 @@
         <v>244</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>42</v>
@@ -3270,7 +3270,7 @@
         <v>244</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>43</v>
@@ -3283,7 +3283,7 @@
         <v>244</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>145</v>
@@ -3296,7 +3296,7 @@
         <v>244</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
@@ -3309,7 +3309,7 @@
         <v>244</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>30</v>
@@ -3322,7 +3322,7 @@
         <v>73</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>60</v>
@@ -3335,7 +3335,7 @@
         <v>244</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>226</v>
@@ -3348,7 +3348,7 @@
         <v>244</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>146</v>
@@ -3361,7 +3361,7 @@
         <v>244</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>147</v>
@@ -3374,7 +3374,7 @@
         <v>248</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>148</v>
@@ -3387,7 +3387,7 @@
         <v>73</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>149</v>
@@ -3400,7 +3400,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>150</v>
@@ -3413,7 +3413,7 @@
         <v>73</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
@@ -3426,7 +3426,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>227</v>
@@ -3439,7 +3439,7 @@
         <v>77</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>228</v>
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>229</v>
@@ -3465,7 +3465,7 @@
         <v>73</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>151</v>
@@ -3478,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>21</v>
@@ -3491,7 +3491,7 @@
         <v>73</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>45</v>
@@ -3504,7 +3504,7 @@
         <v>76</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>5</v>
@@ -3517,7 +3517,7 @@
         <v>73</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>52</v>
@@ -3530,7 +3530,7 @@
         <v>73</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
@@ -3543,7 +3543,7 @@
         <v>244</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>244</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
@@ -3569,7 +3569,7 @@
         <v>77</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3582,7 +3582,7 @@
         <v>77</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>69</v>
@@ -3595,7 +3595,7 @@
         <v>77</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>22</v>
@@ -3608,7 +3608,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>20</v>
@@ -3621,7 +3621,7 @@
         <v>76</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>152</v>
@@ -3634,7 +3634,7 @@
         <v>74</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>230</v>
@@ -3647,7 +3647,7 @@
         <v>74</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>153</v>
@@ -3660,7 +3660,7 @@
         <v>73</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>200</v>
@@ -3673,7 +3673,7 @@
         <v>248</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>253</v>
@@ -3686,7 +3686,7 @@
         <v>73</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>201</v>
@@ -3699,7 +3699,7 @@
         <v>76</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>6</v>
@@ -3712,7 +3712,7 @@
         <v>77</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>38</v>
@@ -3725,7 +3725,7 @@
         <v>73</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>41</v>
@@ -3738,7 +3738,7 @@
         <v>76</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>64</v>
@@ -3751,7 +3751,7 @@
         <v>77</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>36</v>
@@ -3764,7 +3764,7 @@
         <v>73</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>35</v>
@@ -3777,7 +3777,7 @@
         <v>76</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>3</v>
@@ -3790,7 +3790,7 @@
         <v>73</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>19</v>
@@ -3803,7 +3803,7 @@
         <v>73</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
@@ -3816,7 +3816,7 @@
         <v>73</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>59</v>
@@ -3829,7 +3829,7 @@
         <v>73</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>65</v>
@@ -3842,7 +3842,7 @@
         <v>73</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>26</v>
@@ -3855,7 +3855,7 @@
         <v>73</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>62</v>
@@ -3868,7 +3868,7 @@
         <v>73</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>70</v>
@@ -3881,7 +3881,7 @@
         <v>73</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
@@ -3894,7 +3894,7 @@
         <v>73</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>202</v>
@@ -3907,7 +3907,7 @@
         <v>73</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -3920,7 +3920,7 @@
         <v>73</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>50</v>
@@ -3933,7 +3933,7 @@
         <v>76</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>55</v>
@@ -3946,7 +3946,7 @@
         <v>244</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>53</v>
@@ -3959,7 +3959,7 @@
         <v>77</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>56</v>
@@ -3972,7 +3972,7 @@
         <v>75</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -3985,7 +3985,7 @@
         <v>244</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>24</v>
@@ -3998,7 +3998,7 @@
         <v>244</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>67</v>
@@ -4011,7 +4011,7 @@
         <v>244</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>154</v>
@@ -4024,7 +4024,7 @@
         <v>244</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>58</v>
@@ -4037,7 +4037,7 @@
         <v>244</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>33</v>
@@ -4050,7 +4050,7 @@
         <v>244</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>155</v>
@@ -4063,7 +4063,7 @@
         <v>73</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>156</v>
@@ -4076,7 +4076,7 @@
         <v>75</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>157</v>
@@ -4089,7 +4089,7 @@
         <v>244</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>158</v>
@@ -4102,7 +4102,7 @@
         <v>244</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>159</v>
@@ -4115,7 +4115,7 @@
         <v>244</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>160</v>
@@ -4128,7 +4128,7 @@
         <v>244</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>31</v>
@@ -4141,7 +4141,7 @@
         <v>244</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>32</v>
@@ -4154,7 +4154,7 @@
         <v>73</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>161</v>
@@ -4167,7 +4167,7 @@
         <v>244</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>162</v>
@@ -4180,7 +4180,7 @@
         <v>244</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>163</v>
@@ -4193,7 +4193,7 @@
         <v>244</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>231</v>
@@ -4206,7 +4206,7 @@
         <v>244</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>197</v>
@@ -4219,7 +4219,7 @@
         <v>77</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>164</v>
@@ -4232,7 +4232,7 @@
         <v>244</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>34</v>
@@ -4245,7 +4245,7 @@
         <v>244</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>165</v>
@@ -4258,7 +4258,7 @@
         <v>73</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>166</v>
@@ -4271,7 +4271,7 @@
         <v>244</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>167</v>
@@ -4284,7 +4284,7 @@
         <v>244</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>168</v>
@@ -4297,7 +4297,7 @@
         <v>244</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>169</v>
@@ -4310,7 +4310,7 @@
         <v>76</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>203</v>
@@ -4323,7 +4323,7 @@
         <v>244</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>170</v>
@@ -4336,7 +4336,7 @@
         <v>73</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>232</v>
@@ -4349,7 +4349,7 @@
         <v>244</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>233</v>
@@ -4362,7 +4362,7 @@
         <v>244</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>29</v>
@@ -4375,7 +4375,7 @@
         <v>244</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>234</v>
@@ -4388,7 +4388,7 @@
         <v>75</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>171</v>
@@ -4401,7 +4401,7 @@
         <v>244</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>235</v>
@@ -4414,7 +4414,7 @@
         <v>244</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>66</v>
@@ -4427,7 +4427,7 @@
         <v>244</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>172</v>
@@ -4440,7 +4440,7 @@
         <v>244</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>173</v>
@@ -4453,7 +4453,7 @@
         <v>244</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>174</v>
@@ -4466,7 +4466,7 @@
         <v>244</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>244</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>175</v>
@@ -4492,7 +4492,7 @@
         <v>76</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>176</v>
@@ -4505,7 +4505,7 @@
         <v>76</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>177</v>
@@ -4518,7 +4518,7 @@
         <v>244</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>236</v>
@@ -4531,7 +4531,7 @@
         <v>244</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>178</v>
@@ -4544,7 +4544,7 @@
         <v>244</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>179</v>
@@ -4557,7 +4557,7 @@
         <v>244</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>393</v>
+        <v>491</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>204</v>
@@ -4570,7 +4570,7 @@
         <v>244</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>180</v>
@@ -4583,7 +4583,7 @@
         <v>73</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>181</v>
@@ -4596,7 +4596,7 @@
         <v>244</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>63</v>
@@ -4609,7 +4609,7 @@
         <v>77</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>205</v>
@@ -4622,7 +4622,7 @@
         <v>244</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>206</v>
@@ -4635,7 +4635,7 @@
         <v>244</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>237</v>
@@ -4648,7 +4648,7 @@
         <v>244</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>207</v>
@@ -4661,7 +4661,7 @@
         <v>244</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>208</v>
@@ -4674,7 +4674,7 @@
         <v>244</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>238</v>
@@ -4687,7 +4687,7 @@
         <v>74</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>182</v>
@@ -4700,7 +4700,7 @@
         <v>244</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>183</v>
@@ -4713,7 +4713,7 @@
         <v>77</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>184</v>
@@ -4726,7 +4726,7 @@
         <v>77</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>185</v>
@@ -4739,7 +4739,7 @@
         <v>77</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>239</v>
@@ -4752,7 +4752,7 @@
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>68</v>
@@ -4765,7 +4765,7 @@
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>186</v>
@@ -4778,7 +4778,7 @@
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>240</v>
@@ -4791,7 +4791,7 @@
         <v>244</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>187</v>
@@ -4804,7 +4804,7 @@
         <v>244</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>188</v>
@@ -4817,7 +4817,7 @@
         <v>248</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>189</v>
@@ -4830,7 +4830,7 @@
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>54</v>
@@ -4843,7 +4843,7 @@
         <v>248</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>190</v>
@@ -4856,7 +4856,7 @@
         <v>248</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>191</v>
@@ -4869,7 +4869,7 @@
         <v>248</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>209</v>
@@ -4882,7 +4882,7 @@
         <v>77</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>57</v>
@@ -4895,7 +4895,7 @@
         <v>248</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>192</v>
@@ -4908,7 +4908,7 @@
         <v>248</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>193</v>
@@ -4921,7 +4921,7 @@
         <v>248</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>194</v>
@@ -4934,7 +4934,7 @@
         <v>248</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>195</v>
@@ -4947,7 +4947,7 @@
         <v>248</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>241</v>
@@ -4960,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>37</v>
@@ -4973,7 +4973,7 @@
         <v>246</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>196</v>
@@ -4986,10 +4986,10 @@
         <v>75</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -4999,10 +4999,10 @@
         <v>75</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -5012,10 +5012,10 @@
         <v>75</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -5025,7 +5025,7 @@
         <v>77</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>23</v>
@@ -5038,7 +5038,7 @@
         <v>77</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>15</v>
@@ -5051,7 +5051,7 @@
         <v>77</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>16</v>
@@ -5064,7 +5064,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>242</v>
@@ -5077,7 +5077,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>243</v>
